--- a/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 2,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 1,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 2,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -920,32 +920,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 0,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 192,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>92,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,61%</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>506,6%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,63%</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 4,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 0,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,49%</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 1,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 2,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 0,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,65; 147,7</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>33,89%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-33,48%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,25%</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 0,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,62; 646,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 367,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,19; 239,94</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,26%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 0,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,19; 304,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,5; 103,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,0; 772,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,57; 79,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,15</t>
+          <t>0,0; 0,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,29%</t>
+          <t>-74,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,42</t>
+          <t>-4,17; 0,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 192,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>43,38%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,31</t>
+          <t>-0,89; 1,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-48,63%</t>
+          <t>-53,44%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,53</t>
+          <t>-2,36; 0,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-36,49%</t>
+          <t>-44,02%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,6</t>
+          <t>-2,37; 0,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-90,65; 147,7</t>
+          <t>-91,79; 124,68</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,71</t>
+          <t>-0,61; 0,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,19; 239,94</t>
+          <t>-64,56; 539,43</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>-15,38%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,24</t>
+          <t>-0,46; 0,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 79,23</t>
+          <t>-63,34; 84,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,08</t>
+          <t>-1,98; 2,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,7</t>
+          <t>-1,1; 1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,0</t>
+          <t>-2,65; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,0</t>
+          <t>-1,87; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,11</t>
+          <t>-2,34; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,03</t>
+          <t>-0,46; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 367,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,0</t>
+          <t>-2,11; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,27</t>
+          <t>-3,4; 0,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,17</t>
+          <t>-1,15; 2,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,33</t>
+          <t>-0,99; 1,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,79</t>
+          <t>0,35; 5,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,53</t>
+          <t>-2,78; 0,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,17</t>
+          <t>-0,21; 1,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,27</t>
+          <t>-1,74; 0,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,17</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,47</t>
+          <t>-2,42; 0,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-91,79; 124,68</t>
+          <t>-92,0; 124,61</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,43</t>
+          <t>-0,79; 1,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,43</t>
+          <t>-1,13; 0,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,88</t>
+          <t>-0,64; 0,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,62; 646,53</t>
+          <t>-77,53; 664,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 367,64</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 539,43</t>
+          <t>-66,5; 356,81</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,58</t>
+          <t>-0,15; 0,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,42</t>
+          <t>-0,44; 0,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,33</t>
+          <t>-0,16; 0,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,22</t>
+          <t>-0,46; 0,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 304,49</t>
+          <t>-35,53; 294,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 103,84</t>
+          <t>-52,14; 98,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 772,94</t>
+          <t>-84,06; 583,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 84,84</t>
+          <t>-64,0; 93,55</t>
         </is>
       </c>
     </row>
